--- a/environment/sensitivities/Pathways to Net Zero - Exact 1-Year Shifting No Double-Deployment - Total opex.xlsx
+++ b/environment/sensitivities/Pathways to Net Zero - Exact 1-Year Shifting No Double-Deployment - Total opex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\Work\Research\SAPIENS@SPA-QMUL\TuringProject\RangL-NetZeroTech@MSTeams\General\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06BE9D7-44C2-42E8-B505-8F9B60F0F115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFE44C22-B6FA-47A0-A749-737F3576E9A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="15540" xr2:uid="{DB72C8DE-5FF5-4ED5-A9B7-1B45E08405B5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="15540" xr2:uid="{C5C45479-BB2F-4B82-84B9-F235A541A16C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF5E149-5C5B-42F1-82E1-3E4ED73D7C31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6373146-BB0F-4810-8285-89E6A3014522}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -558,97 +558,97 @@
         <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>8173.7968296674462</v>
+        <v>8275.84085119876</v>
       </c>
       <c r="E2" s="4">
-        <v>8015.9396638898297</v>
+        <v>8181.1364275615206</v>
       </c>
       <c r="F2" s="4">
-        <v>7816.4907940006542</v>
+        <v>8089.7048406415706</v>
       </c>
       <c r="G2" s="4">
-        <v>7637.6579771409461</v>
+        <v>7771.0890741038456</v>
       </c>
       <c r="H2" s="4">
-        <v>7535.5590552865269</v>
+        <v>7794.1057507254573</v>
       </c>
       <c r="I2" s="4">
-        <v>7597.9820144615896</v>
+        <v>7682.3896806233615</v>
       </c>
       <c r="J2" s="4">
-        <v>7578.4883100529523</v>
+        <v>7694.0204871794995</v>
       </c>
       <c r="K2" s="4">
-        <v>7595.1682086192195</v>
+        <v>7731.8609711502249</v>
       </c>
       <c r="L2" s="4">
-        <v>7638.0008209464377</v>
+        <v>7703.2236325364447</v>
       </c>
       <c r="M2" s="4">
-        <v>7615.4020992095775</v>
+        <v>7747.5870479553641</v>
       </c>
       <c r="N2" s="4">
-        <v>7583.4854347992741</v>
+        <v>7629.195061081562</v>
       </c>
       <c r="O2" s="4">
-        <v>7603.0593240442358</v>
+        <v>7603.4961444462206</v>
       </c>
       <c r="P2" s="4">
-        <v>7593.5410265864475</v>
+        <v>7594.1035764397275</v>
       </c>
       <c r="Q2" s="4">
-        <v>7601.5377356815679</v>
+        <v>7602.2299267878925</v>
       </c>
       <c r="R2" s="4">
-        <v>7628.4176951274021</v>
+        <v>7629.2420571742423</v>
       </c>
       <c r="S2" s="4">
-        <v>7675.7205175985555</v>
+        <v>7676.6777567949457</v>
       </c>
       <c r="T2" s="4">
-        <v>7744.8187787625302</v>
+        <v>7745.906425448622</v>
       </c>
       <c r="U2" s="4">
-        <v>7837.7707345245872</v>
+        <v>7838.9837546686895</v>
       </c>
       <c r="V2" s="4">
-        <v>7956.6949626565356</v>
+        <v>7958.0245797795915</v>
       </c>
       <c r="W2" s="4">
-        <v>8103.9600154755462</v>
+        <v>8105.3928308304221</v>
       </c>
       <c r="X2" s="4">
-        <v>8282.2545430898608</v>
+        <v>8283.7714983540518</v>
       </c>
       <c r="Y2" s="4">
-        <v>8494.4813042167061</v>
+        <v>8496.0564634173988</v>
       </c>
       <c r="Z2" s="4">
-        <v>8743.9231553685586</v>
+        <v>8745.5222803205561</v>
       </c>
       <c r="AA2" s="4">
-        <v>9034.2273234076711</v>
+        <v>9035.8062146272969</v>
       </c>
       <c r="AB2" s="4">
-        <v>9369.4363390934923</v>
+        <v>9370.9389121799286</v>
       </c>
       <c r="AC2" s="4">
-        <v>9754.0179756609505</v>
+        <v>9755.3740418586221</v>
       </c>
       <c r="AD2" s="4">
-        <v>10192.89231075255</v>
+        <v>10194.015030355422</v>
       </c>
       <c r="AE2" s="4">
-        <v>10691.453137629713</v>
+        <v>10692.236116861128</v>
       </c>
       <c r="AF2" s="4">
-        <v>11255.57968999104</v>
+        <v>11255.893697186901</v>
       </c>
       <c r="AG2" s="4">
-        <v>11891.632864731782</v>
+        <v>11891.322151846314</v>
       </c>
       <c r="AH2" s="4">
-        <v>12451.120694140885</v>
+        <v>12449.998927407036</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -662,97 +662,97 @@
         <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>8173.8274482074939</v>
+        <v>8276.2262983212659</v>
       </c>
       <c r="E3" s="4">
-        <v>8017.8999400022822</v>
+        <v>8182.3162547510738</v>
       </c>
       <c r="F3" s="4">
-        <v>7819.7695910269704</v>
+        <v>8092.303188744987</v>
       </c>
       <c r="G3" s="4">
-        <v>7643.0307364701384</v>
+        <v>7775.6813845101387</v>
       </c>
       <c r="H3" s="4">
-        <v>7543.7586202098591</v>
+        <v>7801.6248867715558</v>
       </c>
       <c r="I3" s="4">
-        <v>7607.2924335675443</v>
+        <v>7691.219710630493</v>
       </c>
       <c r="J3" s="4">
-        <v>7591.2476413949662</v>
+        <v>7706.3994978338542</v>
       </c>
       <c r="K3" s="4">
-        <v>7612.4689555935274</v>
+        <v>7748.7815048128496</v>
       </c>
       <c r="L3" s="4">
-        <v>7660.7903574490865</v>
+        <v>7725.6331137970919</v>
       </c>
       <c r="M3" s="4">
-        <v>7644.5830842248752</v>
+        <v>7776.3881995830397</v>
       </c>
       <c r="N3" s="4">
-        <v>7616.616216570229</v>
+        <v>7708.5095826346669</v>
       </c>
       <c r="O3" s="4">
-        <v>7739.525232705575</v>
+        <v>7739.671792174403</v>
       </c>
       <c r="P3" s="4">
-        <v>7790.6316245016124</v>
+        <v>7790.8964786619745</v>
       </c>
       <c r="Q3" s="4">
-        <v>7863.0798535113672</v>
+        <v>7863.4651268095104</v>
       </c>
       <c r="R3" s="4">
-        <v>7957.9607354501923</v>
+        <v>7958.466917087776</v>
       </c>
       <c r="S3" s="4">
-        <v>8076.7764239960898</v>
+        <v>8077.4019300108184</v>
       </c>
       <c r="T3" s="4">
-        <v>8220.6850588821562</v>
+        <v>8221.4249014095585</v>
       </c>
       <c r="U3" s="4">
-        <v>8391.2322540351142</v>
+        <v>8392.1787011638553</v>
       </c>
       <c r="V3" s="4">
-        <v>8590.299254629288</v>
+        <v>8591.2407388316096</v>
       </c>
       <c r="W3" s="4">
-        <v>8819.4596468130258</v>
+        <v>8820.5800250535922</v>
       </c>
       <c r="X3" s="4">
-        <v>9080.7228602181858</v>
+        <v>9081.9005902509052</v>
       </c>
       <c r="Y3" s="4">
-        <v>9375.9370012682775</v>
+        <v>9377.1442375225906</v>
       </c>
       <c r="Z3" s="4">
-        <v>9707.0304746921865</v>
+        <v>9708.2320929987054</v>
       </c>
       <c r="AA3" s="4">
-        <v>10075.906873961418</v>
+        <v>10077.159442694563</v>
       </c>
       <c r="AB3" s="4">
-        <v>10484.480423776966</v>
+        <v>10485.63115065762</v>
       </c>
       <c r="AC3" s="4">
-        <v>10934.388211215824</v>
+        <v>10935.373911165034</v>
       </c>
       <c r="AD3" s="4">
-        <v>11426.97228781921</v>
+        <v>11427.718439416813</v>
       </c>
       <c r="AE3" s="4">
-        <v>11963.222708162184</v>
+        <v>11963.642696498273</v>
       </c>
       <c r="AF3" s="4">
-        <v>12543.369936775814</v>
+        <v>12543.364621557872</v>
       </c>
       <c r="AG3" s="4">
-        <v>13166.711601407524</v>
+        <v>13166.26940484773</v>
       </c>
       <c r="AH3" s="4">
-        <v>13568.379589094357</v>
+        <v>13567.277373437606</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -766,97 +766,97 @@
         <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>8173.8274482074939</v>
+        <v>8276.9916239738759</v>
       </c>
       <c r="E4" s="4">
-        <v>8022.8139693357534</v>
+        <v>8185.0916610053919</v>
       </c>
       <c r="F4" s="4">
-        <v>7827.9746909504529</v>
+        <v>8098.3696655893173</v>
       </c>
       <c r="G4" s="4">
-        <v>7656.0918634302334</v>
+        <v>7786.8038883910813</v>
       </c>
       <c r="H4" s="4">
-        <v>7563.5392344892662</v>
+        <v>7819.4669257335254</v>
       </c>
       <c r="I4" s="4">
-        <v>7629.539734972248</v>
+        <v>7712.2285314956071</v>
       </c>
       <c r="J4" s="4">
-        <v>7621.899250591744</v>
+        <v>7735.8127894905883</v>
       </c>
       <c r="K4" s="4">
-        <v>7653.9539526523104</v>
+        <v>7789.1284401704752</v>
       </c>
       <c r="L4" s="4">
-        <v>7715.3302948413993</v>
+        <v>7779.0353661122526</v>
       </c>
       <c r="M4" s="4">
-        <v>7714.2929746410937</v>
+        <v>7844.9609335224359</v>
       </c>
       <c r="N4" s="4">
-        <v>7695.8054959144611</v>
+        <v>7824.4965856560702</v>
       </c>
       <c r="O4" s="4">
-        <v>7916.1616874554848</v>
+        <v>7915.3634065639508</v>
       </c>
       <c r="P4" s="4">
-        <v>8033.349762697645</v>
+        <v>8032.6638878805297</v>
       </c>
       <c r="Q4" s="4">
-        <v>8178.3107398008451</v>
+        <v>8177.8376849314309</v>
       </c>
       <c r="R4" s="4">
-        <v>8352.367616567024</v>
+        <v>8352.1058344555913</v>
       </c>
       <c r="S4" s="4">
-        <v>8556.912646190618</v>
+        <v>8556.858165963853</v>
       </c>
       <c r="T4" s="4">
-        <v>8793.1310651680142</v>
+        <v>8793.1761510267388</v>
       </c>
       <c r="U4" s="4">
-        <v>9062.6051446310466</v>
+        <v>9062.738969207232</v>
       </c>
       <c r="V4" s="4">
-        <v>9366.6266198429184</v>
+        <v>9366.8342241571263</v>
       </c>
       <c r="W4" s="4">
-        <v>9706.6071359022226</v>
+        <v>9706.9687987724101</v>
       </c>
       <c r="X4" s="4">
-        <v>10083.876660857222</v>
+        <v>10084.467269757342</v>
       </c>
       <c r="Y4" s="4">
-        <v>10499.569111399487</v>
+        <v>10500.057576060806</v>
       </c>
       <c r="Z4" s="4">
-        <v>10954.103717410382</v>
+        <v>10954.652487216095</v>
       </c>
       <c r="AA4" s="4">
-        <v>11447.74305480259</v>
+        <v>11448.307827869448</v>
       </c>
       <c r="AB4" s="4">
-        <v>11979.869066748986</v>
+        <v>11980.398814804015</v>
       </c>
       <c r="AC4" s="4">
-        <v>12548.792667185158</v>
+        <v>12549.230148925035</v>
       </c>
       <c r="AD4" s="4">
-        <v>13151.478769400168</v>
+        <v>13151.661769889599</v>
       </c>
       <c r="AE4" s="4">
-        <v>13782.76370633234</v>
+        <v>13782.627326299455</v>
       </c>
       <c r="AF4" s="4">
-        <v>14435.135799891654</v>
+        <v>14434.716233262759</v>
       </c>
       <c r="AG4" s="4">
-        <v>15097.841913675966</v>
+        <v>15096.982303227551</v>
       </c>
       <c r="AH4" s="4">
-        <v>15296.217861956673</v>
+        <v>15294.97702322077</v>
       </c>
     </row>
   </sheetData>
